--- a/projects/project-3/assignment/src/data/bfo-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/bfo-axioms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,24 +463,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000108</t>
+          <t>definition: (Elucidation) An entity is anything that exists or has existed or will exist</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>continuant</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000001</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000108</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000001</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000176</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
     </row>
@@ -531,41 +531,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000178</t>
+          <t>definition: (Elucidation) A continuant is an entity that persists, endures, or continues to exist through time while maintaining its identity</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>continuant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000001</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000176</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>continuant</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000062</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000178</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000063</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000001</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000117</t>
+          <t>definition: (Elucidation) An occurrent is an entity that unfolds itself in time or it is the start or end of such an entity or it is a temporal or spatiotemporal region</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000121</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000062</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000132</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000063</t>
         </is>
       </c>
     </row>
@@ -650,957 +650,1569 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000139</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000117</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000121</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>spatial region</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000132</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000139</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000222</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000224</t>
+          <t>definition: b is an independent continuant =Def b is a continuant &amp; there is no c such that b specifically depends on c or b generically depends on c</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000009</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>two-dimensional spatial region</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>spatiotemporal region</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>definition: (Elucidation) A spatial region is a continuant entity that is a continuant part of the spatial projection of a portion of spacetime at a given time</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>spatiotemporal region</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000153</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>spatiotemporal region</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000216</t>
+          <t>definition: (Elucidation) A temporal region is an occurrent over which processes can unfold</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000222</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000055</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000224</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000009</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>two-dimensional spatial region</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000057</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000009</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>two-dimensional spatial region</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>definition: (Elucidation) A two-dimensional spatial region is a spatial region that is a whole consisting of a surface together with zero or more surfaces which may have spatial regions of lower dimension as parts</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>spatiotemporal region</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>spatiotemporal region</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000218</t>
+          <t>definition: (Elucidation) A spatiotemporal region is an occurrent that is an occurrent part of spacetime</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>spatiotemporal region</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000153</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>spatiotemporal region</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000216</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000054</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000018</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>zero-dimensional spatial region</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>definition: (Elucidation) p is a process means p is an occurrent that has some temporal proper part and for some time t, p has some material entity as participant</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000055</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000057</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000195</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000197</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>definition: (Elucidation) A disposition b is a realizable entity such that if b ceases to exist then its bearer is physically changed &amp; b's realization occurs when and because this bearer is in some special physical circumstances &amp; this realization occurs in virtue of the bearer's physical make-up</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000024</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>fiat object part</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000218</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000026</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>one-dimensional spatial region</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000027</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000028</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>three-dimensional spatial region</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>definition: (Elucidation) A realizable entity is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region &amp; which is of a type some instances of which are realized in processes of a correlated type</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000029</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000054</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000030</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000018</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>zero-dimensional spatial region</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000018</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>zero-dimensional spatial region</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
+          <t>definition: (Elucidation) A zero-dimensional spatial region is one or a collection of more than one spatially disjoint points in space</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000058</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000084</t>
+          <t>definition: (Elucidation) A quality is a specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>function</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000035</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>process boundary</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>definition: b is a specifically dependent continuant =Def b is a continuant &amp; there is some independent continuant c which is not a spatial region &amp; which is such that b specifically depends on c</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000195</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000197</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>role</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>role</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>definition: (Elucidation) A role b is a realizable entity such that b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be &amp; b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>fiat object part</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000115</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>fiat object part</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000127</t>
+          <t>definition: (Elucidation) A fiat object part b is a material entity &amp; such that if b exists then it is continuant part of some object c &amp; demarcated from the remainder of c by one or more fiat surfaces</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000026</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>one-dimensional spatial region</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000129</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000026</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>one-dimensional spatial region</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000185</t>
+          <t>definition: (Elucidation) A one-dimensional spatial region is a whole consisting of a line together with zero or more lines which may have points as parts</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000027</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>continuant fiat boundary</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000027</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
+          <t>definition: (Elucidation) An object aggregate is a material entity consisting exactly of a plurality (≥1) of objects as member parts which together form a unit</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000142</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000028</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>fiat line</t>
+          <t>three-dimensional spatial region</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000145</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000028</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>relational quality</t>
+          <t>three-dimensional spatial region</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
+          <t>definition: (Elucidation) A three-dimensional spatial region is a whole consisting of a spatial volume together with zero or more spatial volumes which may have spatial regions of lower dimension as parts</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000146</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000029</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>fiat surface</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000147</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000029</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>fiat point</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>definition: (Elucidation) A site is a three-dimensional immaterial entity whose boundaries either (partially or wholly) coincide with the boundaries of one or more material entities or have locations determined in relation to some material entity</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000030</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>zero-dimensional temporal region</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000030</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>definition: (Elucidation) An object is a material entity which manifests causal unity &amp; is of a type instances of which are maximal relative to the sort of causal unity manifested</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000184</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>definition: (Elucidation) A generically dependent continuant is an entity that exists in virtue of the fact that there is at least one of what may be multiple copies which is the content or the pattern that multiple copies would share</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>temporal instant</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000058</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>temporal instant</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000221</t>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000084</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>definition: (Elucidation) A function is a disposition that exists in virtue of its bearer's physical make-up &amp; this physical make-up is something the bearer possesses because it came into being either through evolution (in the case of natural biological entities) or through intentional design (in the case of artefacts) in order to realize processes of a certain sort</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000035</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>process boundary</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000035</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>process boundary</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>definition: p is a process boundary =Def p is a temporal part of a process &amp; p has no proper temporal parts</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>definition: (Elucidation) A one-dimensional temporal region is a temporal region that is a whole that has a temporal interval and zero or more temporal intervals and temporal instants as parts</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>definition: (Elucidation) A material entity is an independent continuant that at all times at which it exists has some portion of matter as continuant part</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000115</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000127</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000129</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000185</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>continuant fiat boundary</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>continuant fiat boundary</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>definition: (Elucidation) A continuant fiat boundary b is an immaterial entity that is of zero, one or two dimensions &amp; such that there is no time t when b has a spatial region as continuant part &amp; whose location is determined in relation to some material entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>definition: b is an immaterial entity =Def b is an independent continuant which is such that there is no time t when it has a material entity as continuant part</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000142</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>fiat line</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000142</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>fiat line</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>definition: (Elucidation) A fiat line is a one-dimensional continuant fiat boundary that is continuous</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000145</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>relational quality</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000145</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>relational quality</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>definition: b is a relational quality =Def b is a quality &amp; there exists c and d such that c and d are not identical &amp; b specifically depends on c &amp; b specifically depends on d</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000146</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>fiat surface</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000146</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>fiat surface</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>definition: (Elucidation) A fiat surface is a two-dimensional continuant fiat boundary that is self-connected</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000147</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>fiat point</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000147</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>fiat point</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>definition: (Elucidation) A fiat point is a zero-dimensional continuant fiat boundary that consists of a single point</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>zero-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>zero-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>definition: (Elucidation) A zero-dimensional temporal region is a temporal region that is a whole consisting of one or more separated temporal instants as parts</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>definition: (Elucidation) A history is a process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by the material part of a material entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000184</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>definition: (Elucidation) A temporal interval is a one-dimensional temporal region that is continuous, thus without gaps or breaks</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>temporal instant</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>temporal instant</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>definition: (Elucidation) A temporal instant is a zero-dimensional temporal region that has no proper temporal part</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>temporal instant</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>domain of http://purl.obolibrary.org/obo/BFO_0000221</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>temporal instant</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>domain of http://purl.obolibrary.org/obo/BFO_0000223</t>
         </is>

--- a/projects/project-3/assignment/src/data/bfo-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/bfo-axioms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1768 +453,2568 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) An entity is anything that exists or has existed or will exist</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000056</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b17</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000108</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000058</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>continuant</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b20</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000001</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000059</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>continuant</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b23</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000066</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>continuant</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A continuant is an entity that persists, endures, or continues to exist through time while maintaining its identity</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000066</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>continuant</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b29</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000176</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000084</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>continuant</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b33</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000178</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000101</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b37</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000001</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000124</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b41</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) An occurrent is an entity that unfolds itself in time or it is the start or end of such an entity or it is a temporal or spatiotemporal region</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000124</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000062</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000171</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b49</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000063</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000171</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b53</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000117</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000183</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b56</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000121</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000183</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b59</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000132</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000194</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b66</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000139</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000195</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b73</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000196</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b77</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>definition: b is an independent continuant =Def b is a continuant &amp; there is no c such that b specifically depends on c or b generically depends on c</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000197</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>spatial region</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b81</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000199</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>spatial region</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b84</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A spatial region is a continuant entity that is a continuant part of the spatial projection of a portion of spacetime at a given time</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000200</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>temporal region</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b87</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000210</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>temporal region</t>
-        </is>
-      </c>
+          <t>na040bad41d1b44d5b512af38ea3674f3b9</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A temporal region is an occurrent over which processes can unfold</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000057</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000222</t>
+          <t>Definition: (Elucidation) An entity is anything that exists or has existed or will exist</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000224</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000108</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000009</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>two-dimensional spatial region</t>
+          <t>continuant</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>Definition: (Elucidation) A continuant is an entity that persists, endures, or continues to exist through time while maintaining its identity</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000009</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>two-dimensional spatial region</t>
+          <t>continuant</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A two-dimensional spatial region is a spatial region that is a whole consisting of a surface together with zero or more surfaces which may have spatial regions of lower dimension as parts</t>
+          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>spatiotemporal region</t>
+          <t>continuant</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000176</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>spatiotemporal region</t>
+          <t>continuant</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A spatiotemporal region is an occurrent that is an occurrent part of spacetime</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000178</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>spatiotemporal region</t>
+          <t>continuant</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000153</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000176</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>spatiotemporal region</t>
+          <t>continuant</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000216</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000178</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>continuant</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000001</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) p is a process means p is an occurrent that has some temporal proper part and for some time t, p has some material entity as participant</t>
+          <t>Definition: (Elucidation) An occurrent is an entity that unfolds itself in time or it is the start or end of such an entity or it is a temporal or spatiotemporal region</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000055</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000062</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000057</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000063</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000117</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000121</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A disposition b is a realizable entity such that if b ceases to exist then its bearer is physically changed &amp; b's realization occurs when and because this bearer is in some special physical circumstances &amp; this realization occurs in virtue of the bearer's physical make-up</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000132</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000218</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000139</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000062</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000063</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A realizable entity is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region &amp; which is of a type some instances of which are realized in processes of a correlated type</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000117</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000054</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000121</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000018</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>zero-dimensional spatial region</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000132</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000018</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>zero-dimensional spatial region</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A zero-dimensional spatial region is one or a collection of more than one spatially disjoint points in space</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000139</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000001</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A quality is a specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized</t>
+          <t>Definition: b is an independent continuant =Def b is a continuant &amp; there is no c such that b specifically depends on c or b generically depends on c</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>definition: b is a specifically dependent continuant =Def b is a continuant &amp; there is some independent continuant c which is not a spatial region &amp; which is such that b specifically depends on c</t>
+          <t>Definition: (Elucidation) A spatial region is a continuant entity that is a continuant part of the spatial projection of a portion of spacetime at a given time</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000195</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000210</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000197</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000216</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000141</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A role b is a realizable entity such that b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be &amp; b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed</t>
+          <t>Definition: (Elucidation) A temporal region is an occurrent over which processes can unfold</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000024</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>fiat object part</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000222</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000024</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fiat object part</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A fiat object part b is a material entity &amp; such that if b exists then it is continuant part of some object c &amp; demarcated from the remainder of c by one or more fiat surfaces</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000224</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000026</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>one-dimensional spatial region</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000108</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000026</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>one-dimensional spatial region</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A one-dimensional spatial region is a whole consisting of a line together with zero or more lines which may have points as parts</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000153</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000027</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000199</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000027</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) An object aggregate is a material entity consisting exactly of a plurality (≥1) of objects as member parts which together form a unit</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000221</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000028</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>three-dimensional spatial region</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000223</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000028</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>three-dimensional spatial region</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A three-dimensional spatial region is a whole consisting of a spatial volume together with zero or more spatial volumes which may have spatial regions of lower dimension as parts</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000029</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000009</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>two-dimensional spatial region</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>Definition: (Elucidation) A two-dimensional spatial region is a spatial region that is a whole consisting of a surface together with zero or more surfaces which may have spatial regions of lower dimension as parts</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000029</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000009</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>two-dimensional spatial region</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A site is a three-dimensional immaterial entity whose boundaries either (partially or wholly) coincide with the boundaries of one or more material entities or have locations determined in relation to some material entity</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000030</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>spatiotemporal region</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>Definition: (Elucidation) A spatiotemporal region is an occurrent that is an occurrent part of spacetime</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000030</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>spatiotemporal region</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) An object is a material entity which manifests causal unity &amp; is of a type instances of which are maximal relative to the sort of causal unity manifested</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000153</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>spatiotemporal region</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000002</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000216</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>spatiotemporal region</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A generically dependent continuant is an entity that exists in virtue of the fact that there is at least one of what may be multiple copies which is the content or the pattern that multiple copies would share</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000200</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>spatiotemporal region</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000058</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000084</t>
+          <t>Definition: (Elucidation) p is a process means p is an occurrent that has some temporal proper part and for some time t, p has some material entity as participant</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>function</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000055</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>function</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A function is a disposition that exists in virtue of its bearer's physical make-up &amp; this physical make-up is something the bearer possesses because it came into being either through evolution (in the case of natural biological entities) or through intentional design (in the case of artefacts) in order to realize processes of a certain sort</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000057</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000035</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>process boundary</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000054</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000035</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>process boundary</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>definition: p is a process boundary =Def p is a temporal part of a process &amp; p has no proper temporal parts</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000056</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+          <t>Definition: (Elucidation) A disposition b is a realizable entity such that if b ceases to exist then its bearer is physically changed &amp; b's realization occurs when and because this bearer is in some special physical circumstances &amp; this realization occurs in virtue of the bearer's physical make-up</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A one-dimensional temporal region is a temporal region that is a whole that has a temporal interval and zero or more temporal intervals and temporal instants as parts</t>
+          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000023</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000218</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000127</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A material entity is an independent continuant that at all times at which it exists has some portion of matter as continuant part</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000115</t>
+          <t>Definition: (Elucidation) A realizable entity is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region &amp; which is of a type some instances of which are realized in processes of a correlated type</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000127</t>
+          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000019</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000129</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000054</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000185</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000055</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>continuant fiat boundary</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000018</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>continuant fiat boundary</t>
+          <t>zero-dimensional spatial region</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A continuant fiat boundary b is an immaterial entity that is of zero, one or two dimensions &amp; such that there is no time t when b has a spatial region as continuant part &amp; whose location is determined in relation to some material entity</t>
+          <t>Definition: (Elucidation) A zero-dimensional spatial region is one or a collection of more than one spatially disjoint points in space</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000018</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>zero-dimensional spatial region</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>definition: b is an immaterial entity =Def b is an independent continuant which is such that there is no time t when it has a material entity as continuant part</t>
+          <t>Definition: (Elucidation) A quality is a specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000142</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>fiat line</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000142</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>fiat line</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A fiat line is a one-dimensional continuant fiat boundary that is continuous</t>
+          <t>Definition: b is a specifically dependent continuant =Def b is a continuant &amp; there is some independent continuant c which is not a spatial region &amp; which is such that b specifically depends on c</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000145</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>relational quality</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000195</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000145</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>relational quality</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>definition: b is a relational quality =Def b is a quality &amp; there exists c and d such that c and d are not identical &amp; b specifically depends on c &amp; b specifically depends on d</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000197</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000146</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>fiat surface</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000194</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000146</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>fiat surface</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A fiat surface is a two-dimensional continuant fiat boundary that is self-connected</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000196</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000147</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>fiat point</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000147</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>fiat point</t>
+          <t>role</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A fiat point is a zero-dimensional continuant fiat boundary that consists of a single point</t>
+          <t>Definition: (Elucidation) A role b is a realizable entity such that b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be &amp; b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>zero-dimensional temporal region</t>
+          <t>role</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000024</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>zero-dimensional temporal region</t>
+          <t>fiat object part</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A zero-dimensional temporal region is a temporal region that is a whole consisting of one or more separated temporal instants as parts</t>
+          <t>Definition: (Elucidation) A fiat object part b is a material entity &amp; such that if b exists then it is continuant part of some object c &amp; demarcated from the remainder of c by one or more fiat surfaces</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000024</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>fiat object part</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000040</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000026</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>one-dimensional spatial region</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A history is a process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by the material part of a material entity</t>
+          <t>Definition: (Elucidation) A one-dimensional spatial region is a whole consisting of a line together with zero or more lines which may have points as parts</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000026</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>one-dimensional spatial region</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000184</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000027</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>Definition: (Elucidation) An object aggregate is a material entity consisting exactly of a plurality (≥1) of objects as member parts which together form a unit</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000027</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A temporal interval is a one-dimensional temporal region that is continuous, thus without gaps or breaks</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000040</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000028</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>temporal instant</t>
+          <t>three-dimensional spatial region</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+          <t>Definition: (Elucidation) A three-dimensional spatial region is a whole consisting of a spatial volume together with zero or more spatial volumes which may have spatial regions of lower dimension as parts</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000028</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>temporal instant</t>
+          <t>three-dimensional spatial region</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>definition: (Elucidation) A temporal instant is a zero-dimensional temporal region that has no proper temporal part</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000029</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>temporal instant</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000221</t>
+          <t>Definition: (Elucidation) A site is a three-dimensional immaterial entity whose boundaries either (partially or wholly) coincide with the boundaries of one or more material entities or have locations determined in relation to some material entity</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000029</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000030</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) An object is a material entity which manifests causal unity &amp; is of a type instances of which are maximal relative to the sort of causal unity manifested</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000030</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) A generically dependent continuant is an entity that exists in virtue of the fact that there is at least one of what may be multiple copies which is the content or the pattern that multiple copies would share</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000058</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000084</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000059</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000101</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) A function is a disposition that exists in virtue of its bearer's physical make-up &amp; this physical make-up is something the bearer possesses because it came into being either through evolution (in the case of natural biological entities) or through intentional design (in the case of artefacts) in order to realize processes of a certain sort</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000016</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000035</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>process boundary</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Definition: p is a process boundary =Def p is a temporal part of a process &amp; p has no proper temporal parts</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000035</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>process boundary</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) A one-dimensional temporal region is a temporal region that is a whole that has a temporal interval and zero or more temporal intervals and temporal instants as parts</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000148</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000008</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) A material entity is an independent continuant that at all times at which it exists has some portion of matter as continuant part</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000115</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000127</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000129</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000185</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000115</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000129</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000184</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000218</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>continuant fiat boundary</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) A continuant fiat boundary b is an immaterial entity that is of zero, one or two dimensions &amp; such that there is no time t when b has a spatial region as continuant part &amp; whose location is determined in relation to some material entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>continuant fiat boundary</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Definition: b is an immaterial entity =Def b is an independent continuant which is such that there is no time t when it has a material entity as continuant part</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000142</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>fiat line</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) A fiat line is a one-dimensional continuant fiat boundary that is continuous</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000142</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>fiat line</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000140</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000145</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>relational quality</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Definition: b is a relational quality =Def b is a quality &amp; there exists c and d such that c and d are not identical &amp; b specifically depends on c &amp; b specifically depends on d</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000145</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>relational quality</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000019</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000146</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>fiat surface</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) A fiat surface is a two-dimensional continuant fiat boundary that is self-connected</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000146</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>fiat surface</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000140</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000147</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>fiat point</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) A fiat point is a zero-dimensional continuant fiat boundary that consists of a single point</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000147</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>fiat point</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000140</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>zero-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) A zero-dimensional temporal region is a temporal region that is a whole consisting of one or more separated temporal instants as parts</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>zero-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000008</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) A history is a process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by the material part of a material entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000184</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000185</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000015</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) A temporal interval is a one-dimensional temporal region that is continuous, thus without gaps or breaks</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000038</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
           <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>temporal instant</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>domain of http://purl.obolibrary.org/obo/BFO_0000223</t>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Definition: (Elucidation) A temporal instant is a zero-dimensional temporal region that has no proper temporal part</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>temporal instant</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000221</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>temporal instant</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000223</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>temporal instant</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000222</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>temporal instant</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000224</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>temporal instant</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000148</t>
         </is>
       </c>
     </row>

--- a/projects/project-3/assignment/src/data/bfo-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/bfo-axioms.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b1</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b17</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b20</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b23</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b26</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b29</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b33</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b37</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb37</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b41</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb41</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b45</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b49</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb49</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b53</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb53</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b56</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb56</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b59</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b66</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb66</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b73</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb73</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b77</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb77</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b81</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb81</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b84</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb84</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b87</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb87</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>na040bad41d1b44d5b512af38ea3674f3b9</t>
+          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>

--- a/projects/project-3/assignment/src/data/bfo-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/bfo-axioms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb1</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb17</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb20</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb23</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb26</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb29</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb33</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb37</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b37</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb41</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b41</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb45</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb49</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b49</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb53</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b53</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb56</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b56</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb59</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb66</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b66</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb73</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b73</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb77</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b77</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb81</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b81</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb84</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b84</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb87</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b87</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>n2e7a724ca8dc4fedaeaeed2f6551c45bb9</t>
+          <t>n425ac992496e4f4c872a808ed79f4ef9b9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000062</t>
+          <t>EquivalentClass: http://ies.data.gov.uk/ontology/ies4#Event</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000063</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000062</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000117</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000063</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000121</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000117</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000132</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000121</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000139</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000132</t>
         </is>
       </c>
     </row>
@@ -1110,75 +1110,75 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000001</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000139</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Definition: b is an independent continuant =Def b is a continuant &amp; there is no c such that b specifically depends on c or b generically depends on c</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Event</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000002</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000001</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>spatial region</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A spatial region is a continuant entity that is a continuant part of the spatial projection of a portion of spacetime at a given time</t>
+          <t>Definition: b is an independent continuant =Def b is a continuant &amp; there is no c such that b specifically depends on c or b generically depends on c</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000004</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>spatial region</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000210</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000216</t>
+          <t>Definition: (Elucidation) A spatial region is a continuant entity that is a continuant part of the spatial projection of a portion of spacetime at a given time</t>
         </is>
       </c>
     </row>
@@ -1212,41 +1212,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000210</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A temporal region is an occurrent over which processes can unfold</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000216</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000222</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000141</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000224</t>
+          <t>Definition: (Elucidation) A temporal region is an occurrent over which processes can unfold</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000108</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000222</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000153</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000224</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000199</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000108</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000221</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000153</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000223</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000199</t>
         </is>
       </c>
     </row>
@@ -1365,75 +1365,75 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000221</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000009</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>two-dimensional spatial region</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A two-dimensional spatial region is a spatial region that is a whole consisting of a surface together with zero or more surfaces which may have spatial regions of lower dimension as parts</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000223</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000009</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>two-dimensional spatial region</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000009</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>spatiotemporal region</t>
+          <t>two-dimensional spatial region</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A spatiotemporal region is an occurrent that is an occurrent part of spacetime</t>
+          <t>Definition: (Elucidation) A two-dimensional spatial region is a spatial region that is a whole consisting of a surface together with zero or more surfaces which may have spatial regions of lower dimension as parts</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000009</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>spatiotemporal region</t>
+          <t>two-dimensional spatial region</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000153</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000216</t>
+          <t>Definition: (Elucidation) A spatiotemporal region is an occurrent that is an occurrent part of spacetime</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000200</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000153</t>
         </is>
       </c>
     </row>
@@ -1484,41 +1484,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000216</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>spatiotemporal region</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) p is a process means p is an occurrent that has some temporal proper part and for some time t, p has some material entity as participant</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000200</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000011</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>spatiotemporal region</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000055</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000057</t>
+          <t>Definition: (Elucidation) p is a process means p is an occurrent that has some temporal proper part and for some time t, p has some material entity as participant</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000054</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000055</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000056</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000057</t>
         </is>
       </c>
     </row>
@@ -1586,41 +1586,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000054</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A disposition b is a realizable entity such that if b ceases to exist then its bearer is physically changed &amp; b's realization occurs when and because this bearer is in some special physical circumstances &amp; this realization occurs in virtue of the bearer's physical make-up</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000056</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000023</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000218</t>
+          <t>Definition: (Elucidation) A disposition b is a realizable entity such that if b ceases to exist then its bearer is physically changed &amp; b's realization occurs when and because this bearer is in some special physical circumstances &amp; this realization occurs in virtue of the bearer's physical make-up</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000127</t>
+          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000023</t>
         </is>
       </c>
     </row>
@@ -1671,41 +1671,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000218</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A realizable entity is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region &amp; which is of a type some instances of which are realized in processes of a correlated type</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000127</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000016</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000019</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000054</t>
+          <t>Definition: (Elucidation) A realizable entity is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region &amp; which is of a type some instances of which are realized in processes of a correlated type</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000055</t>
+          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000019</t>
         </is>
       </c>
     </row>
@@ -1756,109 +1756,109 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000054</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000018</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>zero-dimensional spatial region</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A zero-dimensional spatial region is one or a collection of more than one spatially disjoint points in space</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000055</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000018</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>zero-dimensional spatial region</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000018</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>zero-dimensional spatial region</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A quality is a specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized</t>
+          <t>Definition: (Elucidation) A zero-dimensional spatial region is one or a collection of more than one spatially disjoint points in space</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000018</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>zero-dimensional spatial region</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Definition: b is a specifically dependent continuant =Def b is a continuant &amp; there is some independent continuant c which is not a spatial region &amp; which is such that b specifically depends on c</t>
+          <t>Definition: (Elucidation) A quality is a specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000019</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000195</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000197</t>
+          <t>Definition: b is a specifically dependent continuant =Def b is a continuant &amp; there is some independent continuant c which is not a spatial region &amp; which is such that b specifically depends on c</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000194</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000195</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000196</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000197</t>
         </is>
       </c>
     </row>
@@ -1926,279 +1926,279 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000002</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000194</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A role b is a realizable entity such that b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be &amp; b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000196</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000017</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000024</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>fiat object part</t>
+          <t>role</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A fiat object part b is a material entity &amp; such that if b exists then it is continuant part of some object c &amp; demarcated from the remainder of c by one or more fiat surfaces</t>
+          <t>Definition: (Elucidation) A role b is a realizable entity such that b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be &amp; b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000024</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>fiat object part</t>
+          <t>role</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000017</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000026</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000024</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>one-dimensional spatial region</t>
+          <t>fiat object part</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A one-dimensional spatial region is a whole consisting of a line together with zero or more lines which may have points as parts</t>
+          <t>Definition: (Elucidation) A fiat object part b is a material entity &amp; such that if b exists then it is continuant part of some object c &amp; demarcated from the remainder of c by one or more fiat surfaces</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000026</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000024</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>one-dimensional spatial region</t>
+          <t>fiat object part</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000040</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000027</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000026</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>one-dimensional spatial region</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) An object aggregate is a material entity consisting exactly of a plurality (≥1) of objects as member parts which together form a unit</t>
+          <t>Definition: (Elucidation) A one-dimensional spatial region is a whole consisting of a line together with zero or more lines which may have points as parts</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000027</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000026</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>one-dimensional spatial region</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000028</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000027</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>three-dimensional spatial region</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A three-dimensional spatial region is a whole consisting of a spatial volume together with zero or more spatial volumes which may have spatial regions of lower dimension as parts</t>
+          <t>Definition: (Elucidation) An object aggregate is a material entity consisting exactly of a plurality (≥1) of objects as member parts which together form a unit</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000028</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000027</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>three-dimensional spatial region</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000006</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000040</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000029</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000028</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>three-dimensional spatial region</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A site is a three-dimensional immaterial entity whose boundaries either (partially or wholly) coincide with the boundaries of one or more material entities or have locations determined in relation to some material entity</t>
+          <t>Definition: (Elucidation) A three-dimensional spatial region is a whole consisting of a spatial volume together with zero or more spatial volumes which may have spatial regions of lower dimension as parts</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000029</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000028</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>three-dimensional spatial region</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000030</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000029</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) An object is a material entity which manifests causal unity &amp; is of a type instances of which are maximal relative to the sort of causal unity manifested</t>
+          <t>Definition: (Elucidation) A site is a three-dimensional immaterial entity whose boundaries either (partially or wholly) coincide with the boundaries of one or more material entities or have locations determined in relation to some material entity</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000030</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000029</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000141</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000030</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A generically dependent continuant is an entity that exists in virtue of the fact that there is at least one of what may be multiple copies which is the content or the pattern that multiple copies would share</t>
+          <t>Definition: (Elucidation) An object is a material entity which manifests causal unity &amp; is of a type instances of which are maximal relative to the sort of causal unity manifested</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000030</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000058</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000040</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000084</t>
+          <t>Definition: (Elucidation) A generically dependent continuant is an entity that exists in virtue of the fact that there is at least one of what may be multiple copies which is the content or the pattern that multiple copies would share</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000059</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000058</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000101</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000084</t>
         </is>
       </c>
     </row>
@@ -2266,109 +2266,109 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000002</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000059</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>function</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A function is a disposition that exists in virtue of its bearer's physical make-up &amp; this physical make-up is something the bearer possesses because it came into being either through evolution (in the case of natural biological entities) or through intentional design (in the case of artefacts) in order to realize processes of a certain sort</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000101</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000031</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>function</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000016</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000002</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000035</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>process boundary</t>
+          <t>function</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Definition: p is a process boundary =Def p is a temporal part of a process &amp; p has no proper temporal parts</t>
+          <t>Definition: (Elucidation) A function is a disposition that exists in virtue of its bearer's physical make-up &amp; this physical make-up is something the bearer possesses because it came into being either through evolution (in the case of natural biological entities) or through intentional design (in the case of artefacts) in order to realize processes of a certain sort</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000035</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>process boundary</t>
+          <t>function</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000003</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000016</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000035</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>process boundary</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A one-dimensional temporal region is a temporal region that is a whole that has a temporal interval and zero or more temporal intervals and temporal instants as parts</t>
+          <t>Definition: p is a process boundary =Def p is a temporal part of a process &amp; p has no proper temporal parts</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000035</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>process boundary</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000148</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000003</t>
         </is>
       </c>
     </row>
@@ -2385,41 +2385,41 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>Definition: (Elucidation) A one-dimensional temporal region is a temporal region that is a whole that has a temporal interval and zero or more temporal intervals and temporal instants as parts</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A material entity is an independent continuant that at all times at which it exists has some portion of matter as continuant part</t>
+          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000148</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000038</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000115</t>
+          <t>Definition: (Elucidation) A material entity is an independent continuant that at all times at which it exists has some portion of matter as continuant part</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000127</t>
+          <t>DisjointWith: http://purl.obolibrary.org/obo/BFO_0000141</t>
         </is>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000129</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000115</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000185</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000127</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000115</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000129</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000129</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000185</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000184</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000115</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000218</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000129</t>
         </is>
       </c>
     </row>
@@ -2572,206 +2572,206 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000004</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000184</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>continuant fiat boundary</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A continuant fiat boundary b is an immaterial entity that is of zero, one or two dimensions &amp; such that there is no time t when b has a spatial region as continuant part &amp; whose location is determined in relation to some material entity</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000218</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>continuant fiat boundary</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000004</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>continuant fiat boundary</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Definition: b is an immaterial entity =Def b is an independent continuant which is such that there is no time t when it has a material entity as continuant part</t>
+          <t>Definition: (Elucidation) A continuant fiat boundary b is an immaterial entity that is of zero, one or two dimensions &amp; such that there is no time t when b has a spatial region as continuant part &amp; whose location is determined in relation to some material entity</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000140</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>continuant fiat boundary</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000004</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000141</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000142</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>fiat line</t>
+          <t>immaterial entity</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A fiat line is a one-dimensional continuant fiat boundary that is continuous</t>
+          <t>Definition: b is an immaterial entity =Def b is an independent continuant which is such that there is no time t when it has a material entity as continuant part</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000142</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>fiat line</t>
+          <t>immaterial entity</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000004</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000145</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000142</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>relational quality</t>
+          <t>fiat line</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Definition: b is a relational quality =Def b is a quality &amp; there exists c and d such that c and d are not identical &amp; b specifically depends on c &amp; b specifically depends on d</t>
+          <t>Definition: (Elucidation) A fiat line is a one-dimensional continuant fiat boundary that is continuous</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000145</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000142</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>relational quality</t>
+          <t>fiat line</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000019</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000140</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000146</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000145</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>fiat surface</t>
+          <t>relational quality</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A fiat surface is a two-dimensional continuant fiat boundary that is self-connected</t>
+          <t>Definition: b is a relational quality =Def b is a quality &amp; there exists c and d such that c and d are not identical &amp; b specifically depends on c &amp; b specifically depends on d</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000146</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000145</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>fiat surface</t>
+          <t>relational quality</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000140</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000019</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000147</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000146</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>fiat point</t>
+          <t>fiat surface</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A fiat point is a zero-dimensional continuant fiat boundary that consists of a single point</t>
+          <t>Definition: (Elucidation) A fiat surface is a two-dimensional continuant fiat boundary that is self-connected</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000147</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000146</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>fiat point</t>
+          <t>fiat surface</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2783,68 +2783,68 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000147</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>zero-dimensional temporal region</t>
+          <t>fiat point</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A zero-dimensional temporal region is a temporal region that is a whole consisting of one or more separated temporal instants as parts</t>
+          <t>Definition: (Elucidation) A fiat point is a zero-dimensional continuant fiat boundary that consists of a single point</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000147</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>zero-dimensional temporal region</t>
+          <t>fiat point</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000008</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000140</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>zero-dimensional temporal region</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A history is a process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by the material part of a material entity</t>
+          <t>Definition: (Elucidation) A zero-dimensional temporal region is a temporal region that is a whole consisting of one or more separated temporal instants as parts</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000148</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>zero-dimensional temporal region</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000184</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000008</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000185</t>
+          <t>Definition: (Elucidation) A history is a process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by the material part of a material entity</t>
         </is>
       </c>
     </row>
@@ -2878,75 +2878,75 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000015</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000184</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>history</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A temporal interval is a one-dimensional temporal region that is continuous, thus without gaps or breaks</t>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000185</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000182</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>history</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000038</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000015</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>temporal instant</t>
+          <t>temporal interval</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Definition: (Elucidation) A temporal instant is a zero-dimensional temporal region that has no proper temporal part</t>
+          <t>Definition: (Elucidation) A temporal interval is a one-dimensional temporal region that is continuous, thus without gaps or breaks</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000202</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>temporal instant</t>
+          <t>temporal interval</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000221</t>
+          <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000038</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000223</t>
+          <t>Definition: (Elucidation) A temporal instant is a zero-dimensional temporal region that has no proper temporal part</t>
         </is>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000222</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000221</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000224</t>
+          <t>Domain of: http://purl.obolibrary.org/obo/BFO_0000223</t>
         </is>
       </c>
     </row>
@@ -3013,6 +3013,40 @@
         </is>
       </c>
       <c r="C157" t="inlineStr">
+        <is>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000222</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>temporal instant</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Range of: http://purl.obolibrary.org/obo/BFO_0000224</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000203</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>temporal instant</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
         <is>
           <t>SubClassOf: http://purl.obolibrary.org/obo/BFO_0000148</t>
         </is>

--- a/projects/project-3/assignment/src/data/bfo-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/bfo-axioms.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b1</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b17</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b20</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b23</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b26</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b29</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b33</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b37</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b37</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b41</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b41</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b45</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b49</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b49</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b53</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b53</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b56</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b56</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b59</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b66</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b66</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b73</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b73</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b77</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b77</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b81</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b81</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b84</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b84</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b87</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b87</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>n425ac992496e4f4c872a808ed79f4ef9b9</t>
+          <t>n1e446dc28bab431fa3520a0ab74536d6b9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
